--- a/src/document/template.xlsx
+++ b/src/document/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\alfredo\Code\Javascript\react-pwa-node\src\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\alfredo\Code\Javascript\react-pwa-node\dist\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1547C784-618C-4419-8450-995029DD8C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC83F7FD-6747-4D0C-B9ED-8ECB30F12916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{7CBC1E6D-60C9-45E6-BC97-554ACF7C6FD7}"/>
+    <workbookView xWindow="3540" yWindow="3525" windowWidth="17250" windowHeight="8865" xr2:uid="{7CBC1E6D-60C9-45E6-BC97-554ACF7C6FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Visitantes" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <t>Facultad de Informática</t>
   </si>
   <si>
-    <t>Constancia de Visitantes</t>
+    <t>Constancia de Productos</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C5" sqref="C5:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
